--- a/fuentes/contenidos/grado06/guion08/ESCALETA_LE_06_08_CO_VERSION2.xlsx
+++ b/fuentes/contenidos/grado06/guion08/ESCALETA_LE_06_08_CO_VERSION2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csepulveda\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris\Documents\GitHub\Lenguaje\fuentes\contenidos\grado06\guion08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="284">
   <si>
     <t>Asignatura</t>
   </si>
@@ -502,21 +502,12 @@
     <t xml:space="preserve">El objetivo de un sociodrama </t>
   </si>
   <si>
-    <t xml:space="preserve">La organización de un sociodrama </t>
-  </si>
-  <si>
     <t xml:space="preserve">Participa en un sociodrama  </t>
   </si>
   <si>
-    <t>Informar</t>
-  </si>
-  <si>
     <t>Opinar</t>
   </si>
   <si>
-    <t>El vestuario y los oficios</t>
-  </si>
-  <si>
     <t>El vestuario y los grupos urbanos</t>
   </si>
   <si>
@@ -772,18 +763,6 @@
     <t>Recurso M101A-03</t>
   </si>
   <si>
-    <t>Los roles en un sociodrama</t>
-  </si>
-  <si>
-    <t>Actividad sobre tareas y funciones de los participantes en sociodramas</t>
-  </si>
-  <si>
-    <t>Establecer algunos roles de los participantes en sociodramas y sus características o funciones, para que el estudiante los organice.</t>
-  </si>
-  <si>
-    <t>Recurso M10A-03</t>
-  </si>
-  <si>
     <t>Actividad de reflexión sobre la realización de sociodramas</t>
   </si>
   <si>
@@ -820,15 +799,6 @@
     <t>Recurso F7-01</t>
   </si>
   <si>
-    <t>Actividad de reflexión sobre los significados del vestuario</t>
-  </si>
-  <si>
-    <t>Seleccionar algunas imágenes sobre las que se pueda hacer una interpretación del vestuario. Realizar algunas preguntas al respecto, haciendo énfasis en la no discriminación.</t>
-  </si>
-  <si>
-    <t>Recurso M5A-02</t>
-  </si>
-  <si>
     <t>Actividad de sensibilización sobre la existencia de grupos urbanos</t>
   </si>
   <si>
@@ -847,15 +817,6 @@
     <t>Realizar algunas preguntas sobre los significados del vestuario en la sociedad. Se pueden incluir algunos oficios. Se pueden seleccionar imágenes alusivas.</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Los oficios</t>
-  </si>
-  <si>
-    <t>Seleccionar imágenes de algunos oficios que tengan aspectos comunes y organizar contenedores de imágenes.</t>
-  </si>
-  <si>
-    <t>Recurso M10B-01</t>
-  </si>
-  <si>
     <t>Establecer algunos grupos o tribus urbanas y sus características, para que el estudiante las organice.</t>
   </si>
   <si>
@@ -868,21 +829,9 @@
     <t>Recurso M1B-03</t>
   </si>
   <si>
-    <t>¿Qué implica informar?</t>
-  </si>
-  <si>
     <t>¿En qué se diferencia el informar y el opinar?</t>
   </si>
   <si>
-    <t>Actividad para organizar oficios a partir de sus características</t>
-  </si>
-  <si>
-    <t>Actividad de comprensión de un video</t>
-  </si>
-  <si>
-    <t>Recurso M5B-01</t>
-  </si>
-  <si>
     <t>Interactivo sobre las diferencias entre informar y opinar</t>
   </si>
   <si>
@@ -926,9 +875,6 @@
   </si>
   <si>
     <t>Recurso M102AB-01</t>
-  </si>
-  <si>
-    <t>DBA1, DBA3. Realizar algunas preguntas sobre loq ue implica informar, a partir del video seleccionado de aulaplaneta ("La deforestación" matrícula: VI002113). Se debe pedir el video y que lo doblen, de acuerdo al instructivo.</t>
   </si>
   <si>
     <t>DBA8. estableer algunas explicaciones y ejemplos de los regionalismos en Colombia. Se podría incluir mapas.</t>
@@ -1181,7 +1127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1239,35 +1185,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1313,6 +1240,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1619,11 +1564,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U290"/>
+  <dimension ref="A1:U286"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,101 +1597,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="34" t="s">
+      <c r="N1" s="47"/>
+      <c r="O1" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="R1" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="T1" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="52" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="49"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="26" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="37"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="53"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>138</v>
@@ -1757,7 +1702,7 @@
       <c r="E3" s="19"/>
       <c r="F3" s="20"/>
       <c r="G3" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H3" s="9">
         <v>1</v>
@@ -1766,7 +1711,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>20</v>
@@ -1779,7 +1724,7 @@
         <v>43</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P3" s="21" t="s">
         <v>19</v>
@@ -1794,7 +1739,7 @@
         <v>130</v>
       </c>
       <c r="T3" s="24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="U3" s="22" t="s">
         <v>131</v>
@@ -1805,7 +1750,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>138</v>
@@ -1816,7 +1761,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="9"/>
       <c r="G4" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H4" s="9">
         <v>2</v>
@@ -1825,7 +1770,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>20</v>
@@ -1838,7 +1783,7 @@
         <v>23</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>19</v>
@@ -1853,7 +1798,7 @@
         <v>130</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="U4" s="10" t="s">
         <v>131</v>
@@ -1864,7 +1809,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>138</v>
@@ -1875,7 +1820,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="9"/>
       <c r="G5" s="16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H5" s="9">
         <v>3</v>
@@ -1884,7 +1829,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
@@ -1897,7 +1842,7 @@
         <v>37</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>19</v>
@@ -1912,7 +1857,7 @@
         <v>130</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="U5" s="10" t="s">
         <v>131</v>
@@ -1923,7 +1868,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>138</v>
@@ -1934,7 +1879,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="9"/>
       <c r="G6" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H6" s="9">
         <v>4</v>
@@ -1943,7 +1888,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>20</v>
@@ -1956,7 +1901,7 @@
         <v>45</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>19</v>
@@ -1971,7 +1916,7 @@
         <v>130</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U6" s="10" t="s">
         <v>131</v>
@@ -1982,7 +1927,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>138</v>
@@ -1993,7 +1938,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="9"/>
       <c r="G7" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H7" s="9">
         <v>5</v>
@@ -2002,7 +1947,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>20</v>
@@ -2015,7 +1960,7 @@
         <v>29</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>19</v>
@@ -2030,7 +1975,7 @@
         <v>130</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="U7" s="10" t="s">
         <v>131</v>
@@ -2041,7 +1986,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>138</v>
@@ -2052,7 +1997,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="9"/>
       <c r="G8" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H8" s="9">
         <v>6</v>
@@ -2061,7 +2006,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
@@ -2074,7 +2019,7 @@
         <v>43</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>19</v>
@@ -2089,7 +2034,7 @@
         <v>130</v>
       </c>
       <c r="T8" s="24" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="U8" s="22" t="s">
         <v>131</v>
@@ -2100,7 +2045,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>138</v>
@@ -2111,7 +2056,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="9"/>
       <c r="G9" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H9" s="9">
         <v>7</v>
@@ -2120,7 +2065,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>19</v>
@@ -2131,7 +2076,7 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>19</v>
@@ -2140,16 +2085,16 @@
         <v>8</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2157,7 +2102,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>138</v>
@@ -2170,7 +2115,7 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H10" s="9">
         <v>8</v>
@@ -2179,7 +2124,7 @@
         <v>19</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>20</v>
@@ -2192,7 +2137,7 @@
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="9" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>19</v>
@@ -2201,16 +2146,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="U10" s="10" t="s">
         <v>195</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="T10" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2218,7 +2163,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>138</v>
@@ -2233,7 +2178,7 @@
         <v>146</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H11" s="9">
         <v>9</v>
@@ -2242,7 +2187,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
@@ -2255,7 +2200,7 @@
         <v>33</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>19</v>
@@ -2270,7 +2215,7 @@
         <v>130</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="U11" s="10" t="s">
         <v>131</v>
@@ -2281,7 +2226,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>138</v>
@@ -2296,7 +2241,7 @@
         <v>147</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H12" s="9">
         <v>10</v>
@@ -2305,7 +2250,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>20</v>
@@ -2318,7 +2263,7 @@
         <v>36</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>19</v>
@@ -2333,7 +2278,7 @@
         <v>130</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="U12" s="10" t="s">
         <v>131</v>
@@ -2344,7 +2289,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>138</v>
@@ -2359,7 +2304,7 @@
         <v>148</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H13" s="9">
         <v>11</v>
@@ -2368,7 +2313,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>20</v>
@@ -2381,7 +2326,7 @@
         <v>27</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>19</v>
@@ -2396,7 +2341,7 @@
         <v>130</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="U13" s="10" t="s">
         <v>131</v>
@@ -2407,7 +2352,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>138</v>
@@ -2420,7 +2365,7 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H14" s="9">
         <v>12</v>
@@ -2429,7 +2374,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
@@ -2442,7 +2387,7 @@
         <v>121</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>19</v>
@@ -2457,7 +2402,7 @@
         <v>130</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="U14" s="10" t="s">
         <v>131</v>
@@ -2468,7 +2413,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>138</v>
@@ -2481,7 +2426,7 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H15" s="9">
         <v>13</v>
@@ -2490,7 +2435,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>20</v>
@@ -2503,7 +2448,7 @@
         <v>45</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>20</v>
@@ -2518,7 +2463,7 @@
         <v>130</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="U15" s="10" t="s">
         <v>131</v>
@@ -2529,7 +2474,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>138</v>
@@ -2540,7 +2485,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="9"/>
       <c r="G16" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H16" s="9">
         <v>14</v>
@@ -2549,7 +2494,7 @@
         <v>19</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>20</v>
@@ -2562,7 +2507,7 @@
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="9" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="P16" s="9" t="s">
         <v>19</v>
@@ -2571,16 +2516,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="U16" s="10" t="s">
         <v>195</v>
-      </c>
-      <c r="S16" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="T16" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="U16" s="10" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2588,7 +2533,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>138</v>
@@ -2599,7 +2544,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="9"/>
       <c r="G17" s="16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H17" s="9">
         <v>15</v>
@@ -2608,7 +2553,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
@@ -2621,7 +2566,7 @@
         <v>23</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>19</v>
@@ -2636,7 +2581,7 @@
         <v>130</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="U17" s="10" t="s">
         <v>131</v>
@@ -2647,7 +2592,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>138</v>
@@ -2660,7 +2605,7 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H18" s="9">
         <v>16</v>
@@ -2669,7 +2614,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>20</v>
@@ -2682,7 +2627,7 @@
         <v>119</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>19</v>
@@ -2697,7 +2642,7 @@
         <v>130</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="U18" s="10" t="s">
         <v>131</v>
@@ -2708,7 +2653,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>138</v>
@@ -2721,7 +2666,7 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H19" s="9">
         <v>17</v>
@@ -2730,7 +2675,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>20</v>
@@ -2743,7 +2688,7 @@
         <v>121</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P19" s="9" t="s">
         <v>19</v>
@@ -2758,7 +2703,7 @@
         <v>130</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="U19" s="10" t="s">
         <v>131</v>
@@ -2769,7 +2714,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>138</v>
@@ -2782,7 +2727,7 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="16" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H20" s="9">
         <v>18</v>
@@ -2791,7 +2736,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
@@ -2804,7 +2749,7 @@
         <v>121</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P20" s="9" t="s">
         <v>19</v>
@@ -2819,7 +2764,7 @@
         <v>130</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="U20" s="10" t="s">
         <v>131</v>
@@ -2830,7 +2775,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>138</v>
@@ -2842,48 +2787,46 @@
         <v>151</v>
       </c>
       <c r="F21" s="9"/>
-      <c r="G21" s="33" t="s">
-        <v>241</v>
+      <c r="G21" s="16" t="s">
+        <v>232</v>
       </c>
       <c r="H21" s="9">
         <v>19</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M21" s="8"/>
-      <c r="N21" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="N21" s="8"/>
       <c r="O21" s="9" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="P21" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q21" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>244</v>
+        <v>159</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2891,7 +2834,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>138</v>
@@ -2900,49 +2843,51 @@
         <v>142</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="16" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H22" s="9">
         <v>20</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
+      <c r="N22" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="O22" s="9" t="s">
-        <v>298</v>
+        <v>239</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q22" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2950,42 +2895,40 @@
         <v>16</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>138</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>123</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E23" s="13"/>
       <c r="F23" s="9"/>
       <c r="G23" s="16" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="H23" s="9">
         <v>21</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8" t="s">
-        <v>121</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N23" s="8"/>
       <c r="O23" s="9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P23" s="9" t="s">
         <v>19</v>
@@ -2994,16 +2937,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>131</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3011,7 +2954,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>138</v>
@@ -3019,10 +2962,12 @@
       <c r="D24" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="13" t="s">
+        <v>153</v>
+      </c>
       <c r="F24" s="9"/>
       <c r="G24" s="16" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="H24" s="9">
         <v>22</v>
@@ -3031,7 +2976,7 @@
         <v>19</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>20</v>
@@ -3040,11 +2985,11 @@
         <v>5</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P24" s="9" t="s">
         <v>19</v>
@@ -3053,16 +2998,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="U24" s="10" t="s">
         <v>195</v>
-      </c>
-      <c r="S24" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="T24" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="U24" s="10" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3070,7 +3015,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>138</v>
@@ -3079,11 +3024,11 @@
         <v>144</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="F25" s="9"/>
-      <c r="G25" s="33" t="s">
-        <v>155</v>
+      <c r="G25" s="16" t="s">
+        <v>228</v>
       </c>
       <c r="H25" s="9">
         <v>23</v>
@@ -3092,7 +3037,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>20</v>
@@ -3102,10 +3047,10 @@
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="8" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P25" s="9" t="s">
         <v>19</v>
@@ -3120,7 +3065,7 @@
         <v>130</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="U25" s="10" t="s">
         <v>131</v>
@@ -3131,20 +3076,20 @@
         <v>16</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>138</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="16" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="H26" s="9">
         <v>24</v>
@@ -3153,7 +3098,7 @@
         <v>19</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
@@ -3162,11 +3107,11 @@
         <v>5</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="N26" s="8"/>
       <c r="O26" s="9" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="P26" s="9" t="s">
         <v>19</v>
@@ -3175,16 +3120,16 @@
         <v>6</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="T26" s="12" t="s">
         <v>262</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3192,20 +3137,20 @@
         <v>16</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>138</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="16" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="H27" s="9">
         <v>25</v>
@@ -3227,7 +3172,7 @@
         <v>121</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P27" s="9" t="s">
         <v>19</v>
@@ -3236,16 +3181,16 @@
         <v>6</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>131</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3253,20 +3198,20 @@
         <v>16</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C28" s="31" t="s">
         <v>138</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F28" s="9"/>
-      <c r="G28" s="33" t="s">
-        <v>266</v>
+      <c r="G28" s="16" t="s">
+        <v>271</v>
       </c>
       <c r="H28" s="9">
         <v>26</v>
@@ -3275,7 +3220,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>20</v>
@@ -3285,10 +3230,10 @@
       </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="P28" s="9" t="s">
         <v>20</v>
@@ -3303,7 +3248,7 @@
         <v>130</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="U28" s="10" t="s">
         <v>131</v>
@@ -3314,20 +3259,18 @@
         <v>16</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C29" s="31" t="s">
         <v>138</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>153</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="E29" s="13"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="33" t="s">
-        <v>273</v>
+      <c r="G29" s="16" t="s">
+        <v>212</v>
       </c>
       <c r="H29" s="9">
         <v>27</v>
@@ -3336,7 +3279,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
@@ -3346,10 +3289,10 @@
       </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>293</v>
+        <v>214</v>
       </c>
       <c r="P29" s="9" t="s">
         <v>19</v>
@@ -3364,7 +3307,7 @@
         <v>130</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="U29" s="10" t="s">
         <v>131</v>
@@ -3375,42 +3318,40 @@
         <v>16</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C30" s="31" t="s">
         <v>138</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>154</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="E30" s="13"/>
       <c r="F30" s="9"/>
       <c r="G30" s="16" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="H30" s="9">
         <v>28</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="N30" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="O30" s="9" t="s">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="P30" s="9" t="s">
         <v>19</v>
@@ -3419,16 +3360,16 @@
         <v>6</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3436,20 +3377,18 @@
         <v>16</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C31" s="31" t="s">
         <v>138</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>122</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="E31" s="13"/>
       <c r="F31" s="9"/>
       <c r="G31" s="16" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="H31" s="9">
         <v>29</v>
@@ -3458,7 +3397,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>20</v>
@@ -3468,10 +3407,10 @@
       </c>
       <c r="M31" s="8"/>
       <c r="N31" s="8" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="P31" s="9" t="s">
         <v>19</v>
@@ -3480,37 +3419,35 @@
         <v>6</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="S31" s="10" t="s">
-        <v>281</v>
+        <v>130</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="U31" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C32" s="31" t="s">
         <v>138</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>122</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="E32" s="13"/>
       <c r="F32" s="9"/>
       <c r="G32" s="16" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="H32" s="9">
         <v>30</v>
@@ -3519,7 +3456,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>20</v>
@@ -3529,13 +3466,13 @@
       </c>
       <c r="M32" s="8"/>
       <c r="N32" s="8" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q32" s="10">
         <v>6</v>
@@ -3547,7 +3484,7 @@
         <v>130</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="U32" s="10" t="s">
         <v>131</v>
@@ -3558,86 +3495,76 @@
         <v>16</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C33" s="31" t="s">
         <v>138</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E33" s="13"/>
+        <v>125</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="F33" s="9"/>
       <c r="G33" s="16" t="s">
-        <v>215</v>
+        <v>10</v>
       </c>
       <c r="H33" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M33" s="8"/>
-      <c r="N33" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="O33" s="9" t="s">
-        <v>217</v>
-      </c>
+      <c r="N33" s="8"/>
+      <c r="O33" s="9"/>
       <c r="P33" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="10">
-        <v>6</v>
-      </c>
-      <c r="R33" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="S33" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="T33" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="U33" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="10"/>
     </row>
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C34" s="31" t="s">
         <v>138</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E34" s="13"/>
+        <v>125</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="F34" s="9"/>
       <c r="G34" s="16" t="s">
-        <v>248</v>
+        <v>126</v>
       </c>
       <c r="H34" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="17" t="s">
-        <v>249</v>
+      <c r="J34" s="30" t="s">
+        <v>134</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>20</v>
@@ -3647,10 +3574,10 @@
       </c>
       <c r="M34" s="8"/>
       <c r="N34" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O34" s="9" t="s">
-        <v>250</v>
+        <v>32</v>
+      </c>
+      <c r="O34" s="27" t="s">
+        <v>128</v>
       </c>
       <c r="P34" s="9" t="s">
         <v>19</v>
@@ -3665,7 +3592,7 @@
         <v>130</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>251</v>
+        <v>137</v>
       </c>
       <c r="U34" s="10" t="s">
         <v>131</v>
@@ -3676,27 +3603,27 @@
         <v>16</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C35" s="31" t="s">
         <v>138</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="9"/>
       <c r="G35" s="16" t="s">
-        <v>270</v>
+        <v>127</v>
       </c>
       <c r="H35" s="9">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="17" t="s">
-        <v>271</v>
+      <c r="J35" s="30" t="s">
+        <v>135</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>20</v>
@@ -3706,13 +3633,13 @@
       </c>
       <c r="M35" s="8"/>
       <c r="N35" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O35" s="9" t="s">
-        <v>269</v>
+        <v>52</v>
+      </c>
+      <c r="O35" s="28" t="s">
+        <v>136</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q35" s="10">
         <v>6</v>
@@ -3724,112 +3651,52 @@
         <v>130</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>272</v>
+        <v>132</v>
       </c>
       <c r="U35" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>124</v>
-      </c>
+    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="13"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="H36" s="9">
-        <v>34</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="6"/>
       <c r="M36" s="8"/>
-      <c r="N36" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="O36" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="P36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q36" s="10">
-        <v>6</v>
-      </c>
-      <c r="R36" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="S36" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="T36" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="U36" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="N36" s="8"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="10"/>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="A37" s="4"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="13"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="9">
-        <v>36</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="6"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="9"/>
-      <c r="P37" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="P37" s="9"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="11"/>
       <c r="S37" s="10"/>
@@ -3837,124 +3704,50 @@
       <c r="U37" s="10"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>126</v>
-      </c>
+      <c r="A38" s="4"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="13"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="H38" s="9">
-        <v>37</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="6"/>
       <c r="M38" s="8"/>
-      <c r="N38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O38" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="P38" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q38" s="10">
-        <v>6</v>
-      </c>
-      <c r="R38" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="S38" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="T38" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="U38" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="N38" s="8"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="10"/>
     </row>
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>127</v>
-      </c>
+      <c r="A39" s="4"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
       <c r="E39" s="13"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="H39" s="9">
-        <v>35</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G39" s="16"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="6"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O39" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="P39" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q39" s="10">
-        <v>6</v>
-      </c>
-      <c r="R39" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="S39" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="T39" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="U39" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="N39" s="8"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="10"/>
     </row>
     <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
@@ -4715,98 +4508,10 @@
       <c r="T72" s="12"/>
       <c r="U72" s="10"/>
     </row>
-    <row r="73" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="10"/>
-      <c r="R73" s="11"/>
-      <c r="S73" s="10"/>
-      <c r="T73" s="12"/>
-      <c r="U73" s="10"/>
-    </row>
-    <row r="74" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="10"/>
-      <c r="R74" s="11"/>
-      <c r="S74" s="10"/>
-      <c r="T74" s="12"/>
-      <c r="U74" s="10"/>
-    </row>
-    <row r="75" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="9"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="10"/>
-      <c r="R75" s="11"/>
-      <c r="S75" s="10"/>
-      <c r="T75" s="12"/>
-      <c r="U75" s="10"/>
-    </row>
-    <row r="76" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="10"/>
-      <c r="R76" s="11"/>
-      <c r="S76" s="10"/>
-      <c r="T76" s="12"/>
-      <c r="U76" s="10"/>
-    </row>
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4816,195 +4521,195 @@
     <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>95</v>
+      </c>
+    </row>
     <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
         <v>115</v>
       </c>
     </row>
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
@@ -5164,15 +4869,17 @@
     <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="285" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="288" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="289" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="290" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:U2">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5187,12 +4894,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5203,31 +4904,31 @@
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N76</xm:sqref>
+          <xm:sqref>N3:N72</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A76</xm:sqref>
+          <xm:sqref>A3:A72</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P76 K3:K76 I3:I76</xm:sqref>
+          <xm:sqref>I3:I72 K3:K72 P3:P72</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L76</xm:sqref>
+          <xm:sqref>L3:L72</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M76</xm:sqref>
+          <xm:sqref>M3:M72</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/fuentes/contenidos/grado06/guion08/ESCALETA_LE_06_08_CO_VERSION2.xlsx
+++ b/fuentes/contenidos/grado06/guion08/ESCALETA_LE_06_08_CO_VERSION2.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="289">
   <si>
     <t>Asignatura</t>
   </si>
@@ -899,6 +899,21 @@
   </si>
   <si>
     <t>LE_06_08_CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La organización de un sociodrama </t>
+  </si>
+  <si>
+    <t>Los roles en un sociodrama</t>
+  </si>
+  <si>
+    <t>Actividad sobre tareas y funciones de los participantes en sociodramas</t>
+  </si>
+  <si>
+    <t>Establecer algunos roles de los participantes en sociodramas y sus características o funciones, para que el estudiante los organice.</t>
+  </si>
+  <si>
+    <t>Recurso M10A-03</t>
   </si>
 </sst>
 </file>
@@ -1185,16 +1200,34 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1240,24 +1273,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1566,9 +1581,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,94 +1612,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="35" t="s">
+      <c r="N1" s="53"/>
+      <c r="O1" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="52" t="s">
+      <c r="Q1" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="52" t="s">
+      <c r="S1" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="54" t="s">
+      <c r="T1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="52" t="s">
+      <c r="U1" s="35" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="42"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="26" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="53"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="36"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -2784,49 +2799,51 @@
         <v>142</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>151</v>
+        <v>284</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="16" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="H21" s="9">
         <v>19</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
+      <c r="N21" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="O21" s="9" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="P21" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q21" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>159</v>
+        <v>288</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2843,51 +2860,49 @@
         <v>142</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="16" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H22" s="9">
         <v>20</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M22" s="8"/>
-      <c r="N22" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="N22" s="8"/>
       <c r="O22" s="9" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q22" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>240</v>
+        <v>159</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2901,34 +2916,36 @@
         <v>138</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23" s="13"/>
+        <v>142</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>123</v>
+      </c>
       <c r="F23" s="9"/>
       <c r="G23" s="16" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="H23" s="9">
         <v>21</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N23" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="O23" s="9" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="P23" s="9" t="s">
         <v>19</v>
@@ -2937,16 +2954,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2962,12 +2979,10 @@
       <c r="D24" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>153</v>
-      </c>
+      <c r="E24" s="13"/>
       <c r="F24" s="9"/>
       <c r="G24" s="16" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H24" s="9">
         <v>22</v>
@@ -2976,7 +2991,7 @@
         <v>19</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>20</v>
@@ -2985,11 +3000,11 @@
         <v>5</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="9" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P24" s="9" t="s">
         <v>19</v>
@@ -3004,7 +3019,7 @@
         <v>193</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="U24" s="10" t="s">
         <v>195</v>
@@ -3024,33 +3039,33 @@
         <v>144</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="16" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="H25" s="9">
         <v>23</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8" t="s">
-        <v>121</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N25" s="8"/>
       <c r="O25" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P25" s="9" t="s">
         <v>19</v>
@@ -3059,16 +3074,16 @@
         <v>6</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>131</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3082,36 +3097,36 @@
         <v>138</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="16" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="H26" s="9">
         <v>24</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="N26" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="O26" s="9" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="P26" s="9" t="s">
         <v>19</v>
@@ -3120,16 +3135,16 @@
         <v>6</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3146,33 +3161,33 @@
         <v>143</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="16" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="H27" s="9">
         <v>25</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8" t="s">
-        <v>121</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N27" s="8"/>
       <c r="O27" s="9" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="P27" s="9" t="s">
         <v>19</v>
@@ -3184,13 +3199,13 @@
         <v>192</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3211,7 +3226,7 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H28" s="9">
         <v>26</v>
@@ -3220,7 +3235,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>20</v>
@@ -3230,28 +3245,28 @@
       </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q28" s="10">
         <v>6</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>131</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3265,12 +3280,14 @@
         <v>138</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E29" s="13"/>
+        <v>143</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="F29" s="9"/>
       <c r="G29" s="16" t="s">
-        <v>212</v>
+        <v>271</v>
       </c>
       <c r="H29" s="9">
         <v>27</v>
@@ -3279,7 +3296,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>213</v>
+        <v>272</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
@@ -3289,13 +3306,13 @@
       </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q29" s="10">
         <v>6</v>
@@ -3307,7 +3324,7 @@
         <v>130</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>215</v>
+        <v>274</v>
       </c>
       <c r="U29" s="10" t="s">
         <v>131</v>
@@ -3329,7 +3346,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="9"/>
       <c r="G30" s="16" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="H30" s="9">
         <v>28</v>
@@ -3338,7 +3355,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>20</v>
@@ -3348,10 +3365,10 @@
       </c>
       <c r="M30" s="8"/>
       <c r="N30" s="8" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="P30" s="9" t="s">
         <v>19</v>
@@ -3366,7 +3383,7 @@
         <v>130</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="U30" s="10" t="s">
         <v>131</v>
@@ -3388,7 +3405,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="9"/>
       <c r="G31" s="16" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="H31" s="9">
         <v>29</v>
@@ -3397,7 +3414,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>20</v>
@@ -3407,10 +3424,10 @@
       </c>
       <c r="M31" s="8"/>
       <c r="N31" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="P31" s="9" t="s">
         <v>19</v>
@@ -3425,7 +3442,7 @@
         <v>130</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="U31" s="10" t="s">
         <v>131</v>
@@ -3447,7 +3464,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="9"/>
       <c r="G32" s="16" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="H32" s="9">
         <v>30</v>
@@ -3456,7 +3473,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>20</v>
@@ -3466,10 +3483,10 @@
       </c>
       <c r="M32" s="8"/>
       <c r="N32" s="8" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="P32" s="9" t="s">
         <v>19</v>
@@ -3484,7 +3501,7 @@
         <v>130</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="U32" s="10" t="s">
         <v>131</v>
@@ -3501,41 +3518,53 @@
         <v>138</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="E33" s="13"/>
       <c r="F33" s="9"/>
       <c r="G33" s="16" t="s">
-        <v>10</v>
+        <v>268</v>
       </c>
       <c r="H33" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>133</v>
+        <v>269</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="9"/>
+      <c r="N33" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>281</v>
+      </c>
       <c r="P33" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="10"/>
+      <c r="Q33" s="10">
+        <v>6</v>
+      </c>
+      <c r="R33" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="S33" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="T33" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="U33" s="10" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -3551,52 +3580,38 @@
         <v>125</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="16" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="H34" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="30" t="s">
-        <v>134</v>
+      <c r="J34" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M34" s="8"/>
-      <c r="N34" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O34" s="27" t="s">
-        <v>128</v>
-      </c>
+      <c r="N34" s="8"/>
+      <c r="O34" s="9"/>
       <c r="P34" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="10">
-        <v>6</v>
-      </c>
-      <c r="R34" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="S34" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="T34" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="U34" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="10"/>
     </row>
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -3609,21 +3624,23 @@
         <v>138</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E35" s="13"/>
+        <v>125</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="F35" s="9"/>
       <c r="G35" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H35" s="9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J35" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>20</v>
@@ -3633,13 +3650,13 @@
       </c>
       <c r="M35" s="8"/>
       <c r="N35" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O35" s="28" t="s">
-        <v>136</v>
+        <v>32</v>
+      </c>
+      <c r="O35" s="27" t="s">
+        <v>128</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q35" s="10">
         <v>6</v>
@@ -3651,34 +3668,70 @@
         <v>130</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="U35" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
+      <c r="A36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>127</v>
+      </c>
       <c r="E36" s="13"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="6"/>
+      <c r="G36" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="H36" s="9">
+        <v>34</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="10"/>
+      <c r="N36" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O36" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>6</v>
+      </c>
+      <c r="R36" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="S36" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="T36" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="U36" s="10" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
@@ -4508,6 +4561,29 @@
       <c r="T72" s="12"/>
       <c r="U72" s="10"/>
     </row>
+    <row r="73" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="10"/>
+    </row>
     <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4521,192 +4597,192 @@
     <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>92</v>
-      </c>
-    </row>
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
     </row>
     <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4874,12 +4950,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4894,41 +4964,77 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N72</xm:sqref>
+          <xm:sqref>N3:N20 N22:N73</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A72</xm:sqref>
+          <xm:sqref>A3:A20 A22:A73</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I72 K3:K72 P3:P72</xm:sqref>
+          <xm:sqref>K22:K73 I22:I73 I3:I20 K3:K20 P3:P20 P22:P73</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L72</xm:sqref>
+          <xm:sqref>L3:L20 L22:L73</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M72</xm:sqref>
+          <xm:sqref>M3:M20 M22:M73</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]DATOS!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>M21</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]DATOS!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>L21</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]DATOS!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>P21 K21 I21</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]DATOS!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>A21</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]DATOS!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>N21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/fuentes/contenidos/grado06/guion08/ESCALETA_LE_06_08_CO_VERSION2.xlsx
+++ b/fuentes/contenidos/grado06/guion08/ESCALETA_LE_06_08_CO_VERSION2.xlsx
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1200,34 +1201,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1273,6 +1256,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1583,7 +1584,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,94 +1613,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="33" t="s">
+      <c r="N1" s="47"/>
+      <c r="O1" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="Q1" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="S1" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="52" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="48"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="26" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="53"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4950,6 +4951,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4964,81 +4971,9 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$E$14:$E$48</xm:f>
-          </x14:formula1>
-          <xm:sqref>N3:N20 N22:N73</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$A$1:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A20 A22:A73</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$D$1:$D$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>K22:K73 I22:I73 I3:I20 K3:K20 P3:P20 P22:P73</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$B$1:$B$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>L3:L20 L22:L73</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$E$1:$E$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>M3:M20 M22:M73</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>M21</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>L21</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>P21 K21 I21</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>A21</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>N21</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 

--- a/fuentes/contenidos/grado06/guion08/ESCALETA_LE_06_08_CO_VERSION2.xlsx
+++ b/fuentes/contenidos/grado06/guion08/ESCALETA_LE_06_08_CO_VERSION2.xlsx
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -863,9 +862,6 @@
     <t>Refuerza tu aprendizaje: Informar y opinar</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: respetar la opinión</t>
-  </si>
-  <si>
     <t>Actividad de reflexión sobre las actitudes al opinar</t>
   </si>
   <si>
@@ -915,6 +911,9 @@
   </si>
   <si>
     <t>Recurso M10A-03</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Reconoce opiniones</t>
   </si>
 </sst>
 </file>
@@ -967,7 +966,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1043,6 +1042,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,7 +1148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1201,16 +1206,34 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1258,24 +1281,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1584,7 +1590,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,101 +1619,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="35" t="s">
+      <c r="N1" s="53"/>
+      <c r="O1" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="52" t="s">
+      <c r="Q1" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="52" t="s">
+      <c r="S1" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="54" t="s">
+      <c r="T1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="52" t="s">
+      <c r="U1" s="35" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="42"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="26" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="53"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="36"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>138</v>
@@ -1766,7 +1772,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>138</v>
@@ -1825,7 +1831,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>138</v>
@@ -1884,7 +1890,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>138</v>
@@ -1943,7 +1949,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>138</v>
@@ -2002,7 +2008,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>138</v>
@@ -2061,7 +2067,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>138</v>
@@ -2118,7 +2124,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>138</v>
@@ -2153,7 +2159,7 @@
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>19</v>
@@ -2179,7 +2185,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>138</v>
@@ -2242,7 +2248,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>138</v>
@@ -2279,7 +2285,7 @@
         <v>36</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>19</v>
@@ -2305,7 +2311,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>138</v>
@@ -2368,7 +2374,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>138</v>
@@ -2429,7 +2435,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>138</v>
@@ -2490,7 +2496,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>138</v>
@@ -2523,7 +2529,7 @@
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P16" s="9" t="s">
         <v>19</v>
@@ -2549,7 +2555,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>138</v>
@@ -2582,7 +2588,7 @@
         <v>23</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>19</v>
@@ -2608,7 +2614,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>138</v>
@@ -2669,7 +2675,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>138</v>
@@ -2730,7 +2736,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>138</v>
@@ -2791,7 +2797,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>138</v>
@@ -2800,11 +2806,11 @@
         <v>142</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H21" s="9">
         <v>19</v>
@@ -2813,7 +2819,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>20</v>
@@ -2826,7 +2832,7 @@
         <v>43</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P21" s="9" t="s">
         <v>19</v>
@@ -2841,7 +2847,7 @@
         <v>130</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U21" s="10" t="s">
         <v>131</v>
@@ -2852,7 +2858,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>138</v>
@@ -2885,7 +2891,7 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>19</v>
@@ -2911,7 +2917,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>138</v>
@@ -2972,7 +2978,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>138</v>
@@ -3031,7 +3037,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>138</v>
@@ -3092,7 +3098,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>138</v>
@@ -3153,7 +3159,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>138</v>
@@ -3188,7 +3194,7 @@
       </c>
       <c r="N27" s="8"/>
       <c r="O27" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P27" s="9" t="s">
         <v>19</v>
@@ -3214,7 +3220,7 @@
         <v>16</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C28" s="31" t="s">
         <v>138</v>
@@ -3275,7 +3281,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C29" s="31" t="s">
         <v>138</v>
@@ -3287,8 +3293,8 @@
         <v>122</v>
       </c>
       <c r="F29" s="9"/>
-      <c r="G29" s="16" t="s">
-        <v>271</v>
+      <c r="G29" s="58" t="s">
+        <v>288</v>
       </c>
       <c r="H29" s="9">
         <v>27</v>
@@ -3297,7 +3303,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
@@ -3310,7 +3316,7 @@
         <v>36</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P29" s="9" t="s">
         <v>20</v>
@@ -3325,7 +3331,7 @@
         <v>130</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U29" s="10" t="s">
         <v>131</v>
@@ -3336,7 +3342,7 @@
         <v>16</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C30" s="31" t="s">
         <v>138</v>
@@ -3395,7 +3401,7 @@
         <v>16</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C31" s="31" t="s">
         <v>138</v>
@@ -3454,7 +3460,7 @@
         <v>16</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C32" s="31" t="s">
         <v>138</v>
@@ -3513,7 +3519,7 @@
         <v>16</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C33" s="31" t="s">
         <v>138</v>
@@ -3546,7 +3552,7 @@
         <v>120</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P33" s="9" t="s">
         <v>19</v>
@@ -3561,7 +3567,7 @@
         <v>130</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U33" s="10" t="s">
         <v>131</v>
@@ -3572,7 +3578,7 @@
         <v>16</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C34" s="31" t="s">
         <v>138</v>
@@ -3619,7 +3625,7 @@
         <v>16</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C35" s="31" t="s">
         <v>138</v>
@@ -3680,7 +3686,7 @@
         <v>16</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C36" s="31" t="s">
         <v>138</v>
@@ -4951,12 +4957,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4971,6 +4971,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
